--- a/excel/locations.xlsx
+++ b/excel/locations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="463">
   <si>
     <t>fairgrounds</t>
   </si>
@@ -34,7 +34,7 @@
     <t>merchandise-mart</t>
   </si>
   <si>
-    <t>ramberg-music-cafe</t>
+    <t>ramberg-center</t>
   </si>
   <si>
     <t>christensen-farms-stage</t>
@@ -64,6 +64,9 @@
     <t>goat-booth</t>
   </si>
   <si>
+    <t>equimania</t>
+  </si>
+  <si>
     <t>health-fair-11</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
     <t>the-north-woods</t>
   </si>
   <si>
-    <t>ramberg-music-cafe-stage</t>
-  </si>
-  <si>
     <t>livestock-complex</t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>pet-pavilions</t>
   </si>
   <si>
-    <t>law-enforcement-headquarters</t>
+    <t>police-headquarters</t>
   </si>
   <si>
     <t>visitor-plaza</t>
@@ -298,6 +298,9 @@
     <t>underwood-st-east-of-dairy-building</t>
   </si>
   <si>
+    <t>giant-sing-along</t>
+  </si>
+  <si>
     <t>history-walking-tour</t>
   </si>
   <si>
@@ -379,6 +382,9 @@
     <t>cosgrove-st-south-of-home-improvement-building</t>
   </si>
   <si>
+    <t>mini-golf-on-a-stick</t>
+  </si>
+  <si>
     <t>west-end-market</t>
   </si>
   <si>
@@ -409,6 +415,9 @@
     <t>mancinis-al-fresco</t>
   </si>
   <si>
+    <t>minnesota-afl-cio</t>
+  </si>
+  <si>
     <t>ogaras</t>
   </si>
   <si>
@@ -418,7 +427,10 @@
     <t>outdoor-stageDNR</t>
   </si>
   <si>
-    <t>bob-fm-</t>
+    <t>bob-fm</t>
+  </si>
+  <si>
+    <t>mpr</t>
   </si>
   <si>
     <t>the-hangar</t>
@@ -427,6 +439,9 @@
     <t>jv-bailey-house</t>
   </si>
   <si>
+    <t>tpt-twin-cities-pbs</t>
+  </si>
+  <si>
     <t>Fairgrounds</t>
   </si>
   <si>
@@ -445,7 +460,7 @@
     <t>Merchandise Mart</t>
   </si>
   <si>
-    <t>Ramberg Music Cafe</t>
+    <t>Ramberg Center</t>
   </si>
   <si>
     <t>Christensen Farms Stage</t>
@@ -475,6 +490,9 @@
     <t>Goat Booth</t>
   </si>
   <si>
+    <t>EquiMania!</t>
+  </si>
+  <si>
     <t>Health Fair 11</t>
   </si>
   <si>
@@ -568,9 +586,6 @@
     <t>The North Woods</t>
   </si>
   <si>
-    <t>Ramberg Music Cafe Stage</t>
-  </si>
-  <si>
     <t>Livestock Complex</t>
   </si>
   <si>
@@ -646,7 +661,7 @@
     <t>Pet Pavilions</t>
   </si>
   <si>
-    <t>Law Enforcement Headquarters</t>
+    <t>Police Headquarters</t>
   </si>
   <si>
     <t>Visitors Plaza</t>
@@ -709,6 +724,9 @@
     <t>Underwood St. east of Dairy Building</t>
   </si>
   <si>
+    <t>Giant Sing Along</t>
+  </si>
+  <si>
     <t>History Walking Tour</t>
   </si>
   <si>
@@ -790,6 +808,9 @@
     <t>Cosgrove St., south of Home Improvement Building</t>
   </si>
   <si>
+    <t>Mini Golf On-A-Stick</t>
+  </si>
+  <si>
     <t>West End Market</t>
   </si>
   <si>
@@ -820,6 +841,9 @@
     <t>Mancini's al Fresco</t>
   </si>
   <si>
+    <t>Minnesota AFL-CIO</t>
+  </si>
+  <si>
     <t>O'Gara's at the Fair</t>
   </si>
   <si>
@@ -832,12 +856,18 @@
     <t>BOB FM</t>
   </si>
   <si>
+    <t>MPR</t>
+  </si>
+  <si>
     <t>The Hangar</t>
   </si>
   <si>
     <t>J.V. Bailey House</t>
   </si>
   <si>
+    <t>TPT Twin Cities PBS</t>
+  </si>
+  <si>
     <t>root</t>
   </si>
   <si>
@@ -886,7 +916,7 @@
     <t>Just like the name implies, this building features a wide variety of goods and gadgets – from practical and unique to trendy and fun – for every fair guest.</t>
   </si>
   <si>
-    <t>The perfect place to rejuvenate, relax and recharge! An eclectic mix of singer-songwriters and musicians playing everything from jazz, soul and blues to polka, pop and more perform throughout the day. While you’re here, learn more about amazing past winners of the Outstanding Senior Citizens Awards.</t>
+    <t>Stop by Ramberg Center, sponsored by Cal Spas, to play Blue Ribbon BINGO benefiting the Minnesota State Fair Foundation. BINGO sessions will happen every hour approximately on the hour from 9 a.m. to 8 p.m. (7 p.m. labor day) daily. BINGO participants must be 18 years of age or older, unless accompanied by a parent or guardian. Be prepared to show ID.</t>
   </si>
   <si>
     <t>Stop by the Christensen Farms Stage to meet veterinarians and some animal friends from the CHS Miracle of Birth Center, hear from members of FFA, and learn the ins and outs of life on the farm!</t>
@@ -904,7 +934,7 @@
     <t>The Aisle of Breeds, sponsored by the Minnesota Horse Expo and the Minnesota Horse Council, showcases different breeds and types of horses throughout the 12 days of the State Fair. Be sure to stop by to meet the horses and their owners, get answers to your equine questions, pet a horse or two and find out where to take horseback riding lessons in Minnesota or go for a trail ride.</t>
   </si>
   <si>
-    <t>Step inside the Alphabet Forest and discover alphabet activities for all ages. Take pictures with Fair Letters, create alphabet Ferris wheels, add your fair words to the Fair Dictionary and more! Guests can meet a different author each day in the Alphabet Forest at the Blue Ribbon Homegrown Author Showcase. Activities are brought to you by the Minnesota State Fair Foundation, MELSA Metro Public Libraries, Red Wagon Books, Winding Oak, Northwood Industries and Debra Frasier._x000B__x000B_During your visit to the fair, play the Fabulous Fair Alphabet Game. Print a Fabulous Fair Alphabet game card or pick one up from any State Fair Information Booth. Look for words in what you SEE, HEAR, READ, FEEL - and certainly in what you EAT - at the fair! Write these words on the card, recording two words for each letter of the alphabet. (For example: Write a word that begins with “A” beside the printed A. Remember that X’s are rare - simply look for words that contain an X.) Bring your completed card to the Alphabet Forest at Baldwin Park and win a blue ribbon!</t>
+    <t>Step inside the Alphabet Forest and discover alphabet activities for all ages. Take pictures with Fair Letters, create alphabet Ferris wheels, add your fair words to the Fair Dictionary, pause for a break with a good children’s book (including several in Braille) and more! Guests can meet a different author or illustrator each day in the Alphabet Forest at the Blue Ribbon Homegrown Author Showcase. Activities provided by Debra Frasier, Winding Oak and the Minnesota State Fair and supported by the Minnesota State Fair Foundation._x000B__x000B_During your visit to the fair, play the Fabulous Fair Alphabet Game. Print a Fabulous Fair Alphabet game card or pick one up from any State Fair Information Booth. Look for words in what you SEE, HEAR, READ, FEEL - and certainly in what you EAT - at the fair! Write these words on the card, recording two words for each letter of the alphabet. (For example: Write a word that begins with “A” beside the printed A. Remember that X’s are rare - simply look for words that contain an X.) Bring your completed card to the Alphabet Forest at Baldwin Park and win a blue ribbon!</t>
   </si>
   <si>
     <t>This educational exhibit for the whole family features sheep displays and fun, hands-on activities. The Baa Booth is open the first eight days of the fair.</t>
@@ -913,7 +943,10 @@
     <t xml:space="preserve">This educational, interactive exhibit inspires Minnesotans to get connected to the food they eat. The actions we take every day matter, as we are directly linked to our food. Centering around six areas of action – Buy Local; Eat Local; Grow Food; Nurture Soil; Promote Justice; and Reduce Waste, The Common Table: Minnesota Eats exhibit provides a learning opportunity and takeaway for every age and interest. The exhibit features various garden types, including an aquaponics system, more than 200 edible plants, an interactive foodscape and waste reduction kitchen, as well as dirt and compost displays, all informed by members of the local food community. </t>
   </si>
   <si>
-    <t>Get answers to fascinating questions about the tassels that hang from a goat’s neck (they’re called wattles), how much milk goats produce, why some goat breeds have such different-looking ears, and more. Plus, see a goat anatomy model. Free with fair admission._x000B__x000B__x000B__x000B__x000B_</t>
+    <t>Get answers to fascinating questions about the tassels that hang from a goat’s neck (they’re called wattles), how much milk goats produce, why some goat breeds have such different-looking ears, and more. Plus, see a goat anatomy model. Stop by the last four days of the fair._x000B__x000B__x000B__x000B__x000B_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EquiMania!™, is an award-winning equine educational exhibit that was developed at the University of Guelph in Ontario, Canada in the form of a traveling exhibit. The Minnesota State Fair has partnered with EquiMania™ at the University of Guelph in order to create a replica of their traveling exhibit to be housed in the Horse Barn at the Minnesota State Fair. The EquiMania!™ exhibit at the State Fair includes display stations covering a variety of horse topics such as:_x000B__x000B_• Nutrition_x000B_• Horse Behavior_x000B_• Horse Careers_x000B_• Horse Welfare_x000B_• Anatomy_x000B_• Parasite Prevention_x000B_• Horse and Farm Safety_x000B_• And MUCH more!_x000B__x000B_Each station is equipped with unique educational displays, activities, and quizzes to engage youth from both urban and rural backgrounds. Visitors will have fun learning about the care and welfare of horses and exploring the many career opportunities within the horse industry. </t>
   </si>
   <si>
     <t>Health Fair 11 offers free or low-cost health checks, as well as health education and information. This year’s opportunities include information on food allergies, annual flu shots, hearing assessments, blood typing, gluten-free fair food guides, and much more! Stop by to learn about all of the healthy options for you and your family!_x000B__x000B_Please note: Face coverings are required in Health Fair 11.</t>
@@ -928,7 +961,7 @@
     <t>The award-winning Moo Booth swings open the barn doors (literally) for a cow-to-kitchen showcase of dairy and beef cattle farming–a fascinating mix of science, technology expertise and hard work. Stop on by to see a milking machine up close, hand milk a cow, meet cattle, compete in contests and learn, learn, learn! Free prizes, too.</t>
   </si>
   <si>
-    <t>Get a glimpse into the world of pig farming! Take a 360-degree look inside a real Minnesota pig farm and see what farmers do to care for pigs, people and the environment. See a sow and piglets up close! And don't forget to pick up your free pig ear headband!</t>
+    <t>Get a glimpse into the world of pig farming! Take a 360-degree look inside a real Minnesota pig farm and see what farmers do to care for pigs, people and the environment. See a sow and piglets up close! And don't forget to pick up your free pig ear headband! Created in partnership with Minnesota Pork.</t>
   </si>
   <si>
     <t>Immerse yourself in the wonders of butterflies! These stunning creatures flit and soar around – all before your eyes!</t>
@@ -943,13 +976,13 @@
     <t>One of the tallest traveling giant Ferris wheels in North America is coming to the Minnesota State Fair! The Great Big Wheel carries riders to a height of 156 feet, offering breathtaking views of the State Fairgrounds and beyond! The 15-story-tall Great Big Wheel is equipped with 36 enclosed gondolas each holding six people. Don’t miss the spectacular lighting display as the sun goes down!</t>
   </si>
   <si>
-    <t>Spooks, scares and thrills abound in this State Fair classic!</t>
+    <t>Spooks, scares and thrills abound in this State Fair classic! Note: This attraction is only open during the 12 days of the Minnesota State Fair.</t>
   </si>
   <si>
     <t>Alligators and snakes and lizards, oh my! A fixture since the 1980s, this traveling reptile show shows the young and young at heart amazing reptiles up close!</t>
   </si>
   <si>
-    <t>Get a bird’s-eye view of the spectacular fairgrounds while traveling from the heart of the fairgrounds to the North End and back. This chairlift-style ride is a great form of transportation — and an excellent way to snap some aerial shots!</t>
+    <t>Get a bird’s-eye view of the spectacular fairgrounds while traveling from the heart of the fairgrounds to the North End and back. This chairlift-style ride is a great form of transportation — and an excellent way to snap some aerial shots! Proudly sponsored by Sun Country Airlines.</t>
   </si>
   <si>
     <t>Get a bird’s-eye view of the spectacular fairgrounds while traveling from the north end to the heart of the fairgrounds. This chairlift-style ride is a great form of transportation – and an excellent way to snap some aerial shots!</t>
@@ -997,16 +1030,13 @@
     <t>Delivering both local and national talent for decades, the Leinie Lodge Bandshell is always a top draw — plus it's FREE with fair admission!</t>
   </si>
   <si>
-    <t xml:space="preserve">Happening daily at The North Woods Stage, don’t miss a (p)awfully fun time at the All-Star Stunt Dogs Splash, where talented pups fly through the air and perform tricks! Also here, strong and skilled lumberjacks and lumberjills climb trees, saw logs and so much more at the Timberworks Lumberjack Show. It's all free with fair admission! The 2 &amp; 3 p.m. shows are ASL interpreted. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Come listen to talented singers and songwriters as they share music from traditional country to the unique sounds of bluegrass tunes. You are sure to enjoy what you hear at the Ramberg Music Cafe Stage. Free with fair admission. </t>
+    <t>Happening daily at The North Woods, don’t miss a (p)awfully fun time at the All-Star Stunt Dogs Splash, where talented pups fly through the air and perform tricks! Also here, strong and skilled lumberjacks and lumberjills climb trees, saw logs and so much more at the Timberworks Lumberjack Show. It's all free with fair admission!</t>
   </si>
   <si>
     <t>This majestic, century-old, 117,450-square-foot brick structure is so massive it can house 1,000 head of cattle! Wander the aisles for an up-close look at a variety of dairy and beef cattle breeds. Watch cows being milked, join in fun ag-related activities, and learn about cattle at the Moo Booth and Milking Parlor.</t>
   </si>
   <si>
-    <t>You’ll find a mesmerizing mix of majestic equine breeds all preparing for competition. When the barn is full, that could be up to 500 horses at one time! Stroll down the Aisle of Breeds to meet myriad horses and their owners.</t>
+    <t>You’ll find a mesmerizing mix of majestic equine breeds all preparing for competition. When the barn is full, that could be up to 500 horses at one time!</t>
   </si>
   <si>
     <t>Competitions, exhibitions and more keep this arena busy during the fair. From cattle to goats and more, there's something for everyone to see. Make sure to check out a daily schedule for all the events taking place here.</t>
@@ -1021,10 +1051,10 @@
     <t>Thousands of talented 4-H youth from throughout the state showcase their award-winning exhibits on topics from aerospace to fine arts to health to veterinary science and dozens of categories in between. High-energy song and dance performances, engineering challenges, and a wide range of demonstrations also fill the building._x000B__x000B_For information on all 4-H activities at the fair, download the 4-H at the Minnesota State Fair app or visit https://extension.umn.edu/fairs-events-and-training/4-h-minnesota-state-fair</t>
   </si>
   <si>
-    <t xml:space="preserve">Minnesota’s bounty abounds in this iconic octagon-shaped building, which hosts the fair’s popular crop art competition featuring art created using Minnesota-grown seeds; the Minnesota Craft Brewers Guild, which sells flights of Minnesota-made craft beer; ribbon-winning fruits and vegetables, including giant pumpkins and the Minnesota apple exhibit; gorgeous flower shows; bee &amp; honey displays; a towering center rotunda with an annually themed exhibit by local florists; and more! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This one-of-a-kind agricultural education exhibit is home to baby animals - calves, lambs, goats and piglets - during the State Fair’s 12 days. Staffed by volunteers with FFA and the Minnesota Veterinary Medical Association, this is one of the most popular free exhibits at the fair. Learn more about different egg production systems, veterinary science, and stop by the adjoining FFA Chapter House &amp; Leadership Center. </t>
+    <t>Minnesota’s bounty abounds in this iconic octagon-shaped building, which hosts the fair’s popular crop art competition featuring art created using Minnesota-grown seeds; the Minnesota Craft Brewers Guild, which sells flights of Minnesota-made craft beer; ribbon-winning fruits and vegetables, including giant pumpkins and the Minnesota apple exhibit; gorgeous flower shows; bee &amp; honey displays; a towering center rotunda with an annually themed exhibit by local florists; and more.</t>
+  </si>
+  <si>
+    <t>This one-of-a-kind agricultural education exhibit is home to baby animals - calves, lambs, goats and piglets - during the State Fair’s 12 days. Staffed by volunteers with FFA and the Minnesota Veterinary Medical Association, this is one of the most popular free exhibits at the fair. Learn more about different egg production systems, veterinary science, and stop by the adjoining FFA Chapter House &amp; Leadership Center for hands-on activities led by FFA members from around the state daily (except Labor Day).</t>
   </si>
   <si>
     <t>Marvel at decorated cakes, pristine woodwork, clever quilts on-a-stick and more than 8,000 of the finest handcrafts, needlework, and baked and canned goods created by talented Minnesotans. Cambria Kitchen — located inside the Creative Activities Building — features insightful culinary demonstrations throughout the fair.</t>
@@ -1036,25 +1066,25 @@
     <t>Home to the famed Princess Kay butter sculptures and cool and creamy malts and sundaes, the Dairy Building is also a great place to find Minnesota-based outdoor gear, home improvement merchandise, wool products and so much more.</t>
   </si>
   <si>
-    <t>Get inspired to lead a more sustainable life with easy, everyday reduce-reuse-recycle how-tos and engaging, interactive exhibits on renewable energy, green technology, organic agriculture, transportation alternatives, healthy cooking, and clean air and water. Presented by the Minnesota Pollution Control Agency and the Minnesota State Fair._x000B__x000B_Face coverings are required in Eco Experience.</t>
+    <t>Get inspired to lead a more sustainable life with easy, everyday reduce-reuse-recycle how-tos and engaging, interactive exhibits on renewable energy, green technology, organic agriculture, transportation alternatives, healthy cooking, and clean air and water. Presented by the Minnesota Pollution Control Agency and the Minnesota State Fair.</t>
   </si>
   <si>
     <t>Every year, thousands of Minnesota’s most talented kindergarten through 12th-graders enter their art, creative writing, woodworking, crafts, school projects and more into the State Fair’s K-12 competition. See their amazing ribbon-winning work on display! Plus, watch robotics demonstrations by middle and high schoolers, and visit with a variety of educational institutions and nonprofit exhibitors.</t>
   </si>
   <si>
-    <t>The Cosgrove Stage is filled with energy each day as various dance groups showcase their moves. Come see groups that represent square dance, swing dance and Zumba®, just to name a few!</t>
-  </si>
-  <si>
-    <t>Pictured: 2019 People's Choice Winners_x000B__x000B_• Kid’s Choice – Ivan Gilbert, “Sea Turtle”_x000B_• Adult’s Choice – Toni Dachis, “Prince”_x000B__x000B_Minnesota’s largest juried art exhibition showcases more than 300 of the finest pieces of artwork selected from thousands entered by artists throughout the state. As you meander throughout this 1907 building, you’ll be mesmerized by photographs, ceramics, paintings, sculptures, textiles and drawings. Test your eye for art with the “Be a Fine Arts Detective” sleuthing activity for all ages. Each day within the Studio: HERE corner, an artist presents an up-close look at the “nuts and bolts” of how they create their art. Don’t miss the original 2021 State Fair Commemorative Art created by artist Kevin Cannon.</t>
+    <t>The Cosgrove Stage is filled with energy each day as various dance groups showcase their moves. Come see groups that represent square dance, swing dance and Zumba®, just to name a few! Schedule coming soon!</t>
+  </si>
+  <si>
+    <t>Pictured: 2019 People's Choice Winners_x000B__x000B_• Kid’s Choice – Ivan Gilbert, “Sea Turtle”_x000B_• Adult’s Choice – Toni Dachis, “Prince”_x000B__x000B_Minnesota’s largest juried art exhibition showcases more than 300 of the finest pieces of artwork selected from thousands entered by artists throughout the state. As you meander throughout this 1907 building, you’ll be mesmerized by photographs, ceramics, paintings, sculptures, textiles and drawings. Test your eye for art with the “Be a Fine Arts Detective” sleuthing activity for all ages. Each day within the Studio: HERE corner, an artist presents an up-close look at the “nuts and bolts” of how they create their art.</t>
   </si>
   <si>
     <t>Dozens of palate-pleasing food vendors provide exotic pairings, twists on State Fair staples and distinctively fresh flavors.</t>
   </si>
   <si>
-    <t>Injuries and ailments can be treated at First Aid East or West. In the event of serious illness or injury, call 911 (9-911 on a State Fair phone)._x000B__x000B_Face coverings are required in First Aid.</t>
-  </si>
-  <si>
-    <t>Year-round, please contact Lost &amp; Found at lostandfound@mnstatefair.org or 651-288-4555._x000B__x000B_Following the 2021 State Fair:_x000B_Lost &amp; Found is located at 1842 Dan Patch Ave., across from West End Market:_x000B_• Tuesday, Sept. 7, through Thursday, Sept. 9: 9 a.m. to 3 p.m._x000B_• Friday, Sept. 10: 9 a.m. to noon_x000B_• Closed Monday, Sept. 13_x000B__x000B_Lost &amp; Found is located at the Admin Too building, 1312 Cosgrove St.:_x000B_• Tuesday, Sept. 14, to Friday, Sept. 24: 8 a.m. to 4:30 p.m. (excluding Saturdays and Sundays)_x000B_• 2021 State Fair Lost &amp; Found will be closed after 4:30 p.m. Sept. 24_x000B__x000B_Please note: The hours and location below only pertain to fair time.</t>
+    <t>Injuries and ailments can be treated at First Aid East or West. In the event of serious illness or injury, call 911 (9-911 on a State Fair phone).</t>
+  </si>
+  <si>
+    <t>Year-round, please contact Lost &amp; Found at lostandfound@mnstatefair.org or 651-288-4555._x000B_During the State Fair, Lost &amp; Found is located at 1842 West Dan Patch Avenue across from West End Market. The hours below pertain to fair time. Lost &amp; Found for the 2023 Minnesota State Fair will close on Sept. 29, 2023.</t>
   </si>
   <si>
     <t>Our furry, four-legged friends have an area of their own! In an open-air pavilion, meet dozens of different dog breeds that come to visit throughout the fair. In the corner Pet Surgery Suite, pet spay and neutering surgeries are presented. Plus, shop for treats, toys, grooming products, accessories and even unique animal-themed clothing and furniture. The grassy outdoor demonstration area features daily police K-9, agility and obedience demonstrations.</t>
@@ -1063,13 +1093,13 @@
     <t>In case of emergency, call 911 (9-911 on a State Fair phone). The non-emergency line is 651-291-1111.</t>
   </si>
   <si>
-    <t>A hub for information, banking, shopping and more, Visitors Plaza is an important stop when you're at the fair! Get all of your questions answered from 7:30 a.m. to 11 p.m. at the information booth, shop 'til you drop at the State FairWear Gift Shop from 8 a.m. to 9 p.m., complete your banking needs at Bremer Bank from 7 a.m. to 4 p.m., and stop at the UPS Store for mail services and more from 11 a.m. to 5 p.m. (Closed Sundays and Labor Day) Plus, share your feedback at Guest Relations from 7 a.m. to 11 p.m. (10 p.m. on Labor Day) Don't miss our lovable gopher mascots Fairchild and Fairborne at 11 a.m. and 4 p.m. every day of the fair!</t>
+    <t>A hub for information, banking, shopping and more, Visitors Plaza is an important stop when you're at the fair! Get all of your questions answered from 7:30 a.m. to 9 p.m. at the information booth, shop 'til you drop at the State FairWear Gift Shop from 8 a.m. to 9 p.m. (8 p.m. Labor Day), complete your banking needs at Bremer Bank from 7 a.m. to 4 p.m., and stop at the UPS Store for mail services and more from 11 a.m. to 5 p.m. (Closed Sundays and Labor Day) Plus, share your feedback at Guest Relations from 7:30 a.m. to 10:30 p.m. (9 p.m. on Labor Day) Don't miss our lovable gopher mascots Fairchild and Fairborne at 11 a.m. and 4 p.m. every day of the fair!</t>
   </si>
   <si>
     <t>We welcome all feedback at Guest Relations located at Visitors Plaza. You can also email guestservices@mnstatefair.org.</t>
   </si>
   <si>
-    <t>Care &amp; Assistance is headquarters for people of any age who have become lost or separated from their group. Pick up identification wristbands, available here free of charge, to help reunite lost children with their families. Nursing and infant care facilities and an area to recharge wheelchair batteries are available._x000B__x000B_Face coverings are required in Care &amp; Assistance.</t>
+    <t>Care &amp; Assistance is headquarters for people of any age who have become lost or separated from their group. Pick up identification wristbands, available here free of charge, to help reunite lost children with their families. Nursing and infant care facilities and an area to recharge wheelchair batteries are available.</t>
   </si>
   <si>
     <t xml:space="preserve">The Minnesota State Fair boasts one of the largest livestock exhibitions in the Upper Midwest, which means the action never stops at the 5,000-seat Warner Coliseum. From majestic to agile to graceful to heart-pounding, see judged and timed events featuring draft horses, sheepherding dogs, beef and dairy cattle, bull riding, horse jumping, barrel racing, English horse riding and much more. Dozens of vendors selling a wide variety of merchandise – including the best in western wear – fill the concourse. </t>
@@ -1081,16 +1111,19 @@
     <t>Venture to the North End to experience the fairgrounds’ newest destination neighborhood. Don't miss the North End Event Center, Minnesota Corn Fairstalk, photo stops created by Minnesota artist Adam Turman, Minnesota-based specialty merchants and more!</t>
   </si>
   <si>
-    <t>The North End Event Center, the stunning centerpiece of the redeveloped North End, houses a 12,000-square-foot state-of-the-art exhibit hall.</t>
+    <t xml:space="preserve">The North End Event Center, the stunning centerpiece of the redeveloped North End, houses a 12,000-square-foot state-of-the-art exhibit hall. In 2023, stop by to visit the Sweet &amp; Selfie Experience, free with fair admission! </t>
   </si>
   <si>
     <t>Home to the most extreme thrill rides and attractions at the Minnesota State Fair!_x000B__x000B_Rock Climbing Wall:_x000B_• $7 per person_x000B__x000B_Skyscraper:_x000B_• $35 per rider ($28 during Early Bird Special hours)_x000B__x000B_Sling Shot: _x000B_• $35 per rider ($28 during Early Bird Special hours)_x000B__x000B_Turbo Bungy: _x000B_• $7 per rider</t>
   </si>
   <si>
-    <t>Please note: The DNR Building, Trail Center and Fire Prevention Building are closed in 2021. DNR Park will remain open._x000B__x000B_Escape on a Minnesota outdoor adventure while you’re at the fair! Climb a 65-foot-tall fire tower for a panoramic view of the fairgrounds; spot 45 species of Minnesota fish in the 50,000-gallon outdoor pond; watch a raptor demonstration; enjoy outdoor musical performances; and more.</t>
-  </si>
-  <si>
-    <t>Entertainment, activities and concessions for the kid in all of us! Alphabet Forest offers clever word crafts and games, author encounters and photos with colorful letters. Math On-A-Stick’s intriguing pattern play and creative mathematicians provide plenty of light-bulb moments for kids of all ages. Take a break in the shade at the Family Fair Stage for all-day music, dance, juggling, magic and other zany entertainment. Let your kids dig, scoop, pour and bury their toes in a Great Big Sandbox just for little tykes. Find fun vendors selling apparel, accessories and toys for the whole family.</t>
+    <t xml:space="preserve">Escape on a Minnesota outdoor adventure while you’re at the fair! Climb a 65-foot-tall fire tower for a panoramic view of the fairgrounds (weather permitting); spot 45 species of Minnesota fish in the 50,000-gallon outdoor pond; watch a raptor demonstration; enjoy outdoor musical performances; and more. </t>
+  </si>
+  <si>
+    <t>Entertainment, activities and concessions for the kid in all of us! Alphabet Forest offers clever word crafts and games, author encounters and photos with colorful letters. Math On-A-Stick’s intriguing pattern play and creative mathematicians provide plenty of light-bulb moments for kids of all ages. Take a break in the shade at the Family Fair Stage for all-day music, dance, juggling, magic and other zany entertainment. Find fun vendors selling apparel, accessories and toys for the whole family.</t>
+  </si>
+  <si>
+    <t>The Giant Sing Along offers you an opportunity to join together in a one-of-a-kind experience. A field of microphones welcomes everyone to sing along to this year’s voted-on hits—karaoke-style! A large screen features the lyrics of favorite modern and nostalgic songs. Show tunes are featured daily at noon and 6:30 p.m. for 90 minutes! Software helps everyone sing in unison. The Giant Sing Along is co-produced by the Minnesota State Fair and the Minnesota State Fair Foundation.</t>
   </si>
   <si>
     <t>Want to take in history throughout the fairgrounds? Available year-round is the Minnesota State Fair History Walking Tour. Created in partnership with the Minnesota Historical Society and the Minnesota State Fair Foundation, the tour consists of various stops that focus on a particular subject. During the fair, you can pick up a brochure at any of the 12 stops located around the fairgrounds.</t>
@@ -1099,7 +1132,7 @@
     <t>Kemps Little Farm Hands is a free agricultural education exhibit for kids (3-10) where they become farm hands and experience the agricultural process, beginning at the farm and ending at the market. Children and their families don their work aprons and fire up their imaginations to help with farm chores, collect goods to sell at the farmers market, and then spend their “earnings” on real products made from the farm at the grocery store. Meander through the Field of Knowledge to get an up-close look at sugar beets, wheat and a variety of corn, sunflowers and pollinator-friendly flowers. Each stop along the path provides hands-on tasks related to planting crops and the tending of animals.</t>
   </si>
   <si>
-    <t>Reminiscent of the former Machinery Hill, see free demonstrations and displays of rare antique farm equipment on the west side of Underwood Street between Lee and Randall avenues - a new location this year!</t>
+    <t>Reminiscent of the former Machinery Hill, the Old Iron Show gives fair guests an opportunity to get up-close for demonstrations and displays of beautifully restored, rare antique farm equipment. Learn about the history of the machines, their use in farm fields, the manufacturers of yesteryear, the dedicated, talented restorers in Minnesota, and best of all – marvel as the engines roar to life!</t>
   </si>
   <si>
     <t>Come to the fair and be a part of a fascinating research history – who knew?! The University of Minnesota’s Driven to Discover Building is a research facility featuring collaboration between researchers and thousands of fair guests. More than 30 university departments are seeking adults and children for studies on such diverse topics as public health, language, technology, social skills and much more. Participate in a research study and meet with researchers to learn about their impressive work.</t>
@@ -1108,13 +1141,16 @@
     <t>The historic streetcar arch made its debut at the fair in 1934 as a trolley entrance. In 2013, the arch was restored, and in 2014, it became a permanent part of the West End Gate, once again welcoming thousands of fair guests to the Great Minnesota Get-Together each year. Today, this iconic arch is used as an excellent meeting spot – and don’t forget to grab a selfie there before your fair day is complete!</t>
   </si>
   <si>
+    <t>Can Can Wonderland brings you a clever nine-hole course made up entirely of famous State Fair landmarks – the Space Tower, Haunted House, DNR Park, Giant Slide and Ferris wheel, plus there’s a Hole-stein, fun fair food structures and more!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stroll through this neighborhood of State Fair sights, sounds, tastes and experiences featuring the History &amp; Heritage Center; the Schell’s Stage at Schilling Amphitheater with entertainment all 12 days and nights during the fair; dozens of artisans, craftspeople and specialty merchants selling fine handmade, upcycled and Minnesota-themed wares; and many food and beverage options to please any palate. </t>
   </si>
   <si>
-    <t>Mighty Midway features rides, games of skill, food concessions and endless fun to be had!_x000B__x000B_| Ride                                | Min/Max Height | Minimum Height to Ride Alone |_x000B_|-------------------------------------|----------------|------------------------------|_x000B_| Air Maxx&lt;sup&gt;1&lt;/sup&gt;                | 55"            | 55"                          |_x000B_| Alpine Bobs                         | 42"            | 42"                          |_x000B_| Arabian Daze Fun House              | 36"            | 42"                          |_x000B_| Beach Party                         | 48"            | 48"                          |_x000B_| Cliff Hanger                        | 48"            | 48"                          |_x000B_| Crazy Mouse Spinning Roller Coaster | 48"            | 55"                          |_x000B_| Downdraft                           | 46"            | 48"                          |_x000B_| Equinox                             | 55"            | 55"                          |_x000B_| Flipper                             | 54"            | 54"                          |_x000B_| Haunted Castle Dark Ride            | 40"            | 40"                          |_x000B_| Kamikaze                            | 50"            | 50"                          |_x000B_| Magic Maze Glass House              | 36"            | 42"                          |_x000B_| New York New York Fun House         | 42"            | 47"                          |_x000B_| Orbiter                             | 48"            | 48"                          |_x000B_| Riptide roller coaster*             | 48"            | 48"                          |_x000B_| Rock Star                           | 42"            | 42"                          |_x000B_| Scooter                             | 42"            | 52"                          |_x000B_| Sea Ray                             | 42"            | 42"                          |_x000B_| Sizzler                             | 42"            | 52"                          |_x000B_| Sky Flyer                           | 48"            | 48"                          |_x000B_| Starship 3000                       | 42"            | 42"                          |_x000B_| Storm                               | 42"            | 48"                          |_x000B_| Techno Power                        | 52"            | 52"                          |_x000B_| Zero Gravity                        | 42" - 77"      | 42"                          |_x000B_| Zipper                              | 48"            | 48"                          |_x000B__x000B_&lt;sup&gt;1&lt;/sup&gt; Must be at least 14 years old to ride_x000B__x000B_All information is subject to change. *New in 2021</t>
-  </si>
-  <si>
-    <t>Kidway features rides and games of skill for children and families, as well as excellent food options!_x000B__x000B_| Ride                             | Min/Max Height | Minimum Height to Ride Alone |_x000B_|----------------------------------|----------------|------------------------------|_x000B_| Apple-Go-Round*                  | 36" and up     | 42"                          |_x000B_| Beetle Bobs                      | 36" and up     | 42"                          |_x000B_| Big Bamboo Fun House             | 36" and up     | 42"                          |_x000B_| Bumble Bees*                     | 36" and up     | 42"                          |_x000B_| Cars, Motorcycles &amp; Dune Buggies | 32" - 54"      | 32"                          |_x000B_| Charlie Chopper                  | 30" and up     | 36"                          |_x000B_| Clown Around                     | 32" and up     | 36"                          |_x000B_| Combination Carousel             | 24" and up     | 36"                          |_x000B_| Dive Bomber                      | 32" and up     | 36"                          |_x000B_| Dragon Wagon                     | 36" and up     | 42"                          |_x000B_| Ghost Pirate Dark Ride           | 36" and up     | 42"                          |_x000B_| Hog Rally                        | 25" - 54"      | 34"                          |_x000B_| Kiddie Bumper Boats              | 32" - 52"      | 32"                          |_x000B_| Kiddie Ferris Wheel              | 32" - 48"      | 32"                          |_x000B_| Kite Flyer                       | 42" and up     | 42"                          |_x000B_| Lady Bug                         | 36" and up     | 42"                          |_x000B_| Merry Go-Round                   | 36" and up     | 42"                          |_x000B_| Mini Swings                      | 32" - 46"      | 32"                          |_x000B_| Monkey Maze Glass House          | 32" and up     | 42"                          |_x000B_| Monster Truck                    | 36" and up     | 42"                          |_x000B_| Puppy Express                    | 36" and up     | 42"                          |_x000B_| Raiders                          | 36" and up     | 36"                          |_x000B_| Safari Train                     | 30" and up     | 36"                          |_x000B_| Samba Balloon                    | 32" and up     | 36"                          |_x000B_| Sky Race*                        | 36" and up     | 36"                          |_x000B_| Slide                            | 32" - 54"      | 32"                          |_x000B_| Tilt-A-Whirl                     | 36" and up     | 46"                          |_x000B_| Tractor Ride                     | 32" - 54"      | 32"                          |_x000B_| Wave Swinger                     | 45" and up     | 45"                          |_x000B_| Winky the Whale                  | 30" and up     | 32"                          |_x000B__x000B_All information is subject to change. *New in 2021</t>
+    <t>Mighty Midway features rides, games of skill, food concessions and endless fun to be had!_x000B__x000B_| Ride                                | Min/Max Height | Minimum Height to Ride Alone |_x000B_|-------------------------------------|----------------|------------------------------|_x000B_| Air Maxx&lt;sup&gt;1&lt;/sup&gt;                | 55"            | 55"                          |_x000B_| Alpine Bobs                         | 42"            | 42"                          |_x000B_| Arabian Daze Fun House              | 36"            | 42"                          |_x000B_| Beach Party                         | 48"            | 48"                          |_x000B_| Cliff Hanger                        | 48"            | 48"                          |_x000B_| Crazy Mouse Spinning Roller Coaster | 48"            | 55"                          |_x000B_| Downdraft                           | 46"            | 48"                          |_x000B_| Equinox                             | 55"            | 55"                          |_x000B_| Haunted Castle Dark Ride            | 40"            | 40"                          |_x000B_| Infinity                            | 48"            | 48"                          |_x000B_| Iron Dragon Roller Coaster          | 48"            | 52"                          |_x000B_| Kamikaze                            | 50"            | 50"                          |_x000B_| Magic Maze Glass House              | 36"            | 42"                          |_x000B_| Music Express                       | 42"            | 52"                          |_x000B_| New York New York Fun House         | 42"            | 47"                          |_x000B_| Orbiter                             | 48"            | 48"                          |_x000B_| Rock Star                           | 42"            | 42"                          |_x000B_| Scooter                             | 42"            | 52"                          |_x000B_| Sizzler                             | 42"            | 52"                          |_x000B_| Sky Liner                           | 48"            | 48"                          |_x000B_| Starship 3000                       | 42"            | 42"                          |_x000B_| Storm                               | 42"            | 48"                          |_x000B_| Techno Power                        | 52"            | 52"                          |_x000B_| Tornado                             | 38"            | 42"                          |_x000B_| Zero Gravity                        | 42" - 77"      | 42"                          |_x000B_| Zipper                              | 48"            | 48"                          |_x000B__x000B_&lt;sup&gt;1&lt;/sup&gt; Must be at least 14 years old to ride_x000B__x000B_All information is subject to change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidway features rides and games of skill for children and families, as well as excellent food options!_x000B__x000B_| Ride                             | Min/Max Height | Minimum Height to Ride Alone |_x000B_|----------------------------------|----------------|------------------------------|_x000B_| Apple-Go-Round                   | 36" and up     | 42"                          |_x000B_| Beach Shack                      | 36" and up     | 42"                          |_x000B_| Beetle Bobs                      | 36" and up     | 42"                          |_x000B_| Big Bamboo Fun House             | 36" and up     | 42"                          |_x000B_| Charlie Chopper                  | 30" and up     | 36"                          |_x000B_| Clown Around                     | 32" and up     | 36"                          |_x000B_| Combination Carousel             | Up to 54"      |                              |_x000B_| Dive Bomber                      | 32" and up     | 36"                          |_x000B_| Dragon Wagon                     | 36" and up     | 42"                          |_x000B_| Ghost Pirate Dark Ride           | 36" and up     | 42"                          |_x000B_| Hog Rally                        | 25" - 54"      | 34"                          |_x000B_| Kiddie Bumper Boats              | 32" - 52"      | 32"                          |_x000B_| Kiddie Ferris Wheel              | 32" - 48"      | 32"                          |_x000B_| Kite Flyer                       | 42" and up     | 42"                          |_x000B_| Lady Bug                         | 36" and up     | 42"                          |_x000B_| Merry Go-Round                   | 36" and up     | 42"                          |_x000B_| Mini Swings                      | 32" - 46"      | 32"                          |_x000B_| Monkey Maze Glass House          | 32" and up     | 42"                          |_x000B_| Monster Truck                    | 36" and up     | 42"                          |_x000B_| Pump &amp; Jump                      | 42” and up     | 46”                          |_x000B_| Puppy Express                    | 36" and up     | 42"                          |_x000B_| Raiders                          | 36" and up     | 36"                          |_x000B_| Safari Train                     | 30" and up     | 36"                          |_x000B_| Samba Balloon                    | 32" and up     | 36"                          |_x000B_| Sky Race                         | 36" and up     | 36"                          |_x000B_| Slide                            | 32" - 54"      | 32"                          |_x000B_| Tilt-A-Whirl                     | 36" and up     | 46"                          |_x000B_| Tractor Ride                     | 32" - 54"      | 32"                          |_x000B_| Wave Swinger                     | 45" and up     | 45"                          |_x000B_| Winky the Whale                  | 30" and up     | 32"                          |_x000B__x000B_All information is subject to change. </t>
   </si>
   <si>
     <t>A classic attraction at the Minnesota State Fair for more than half a century!</t>
@@ -1141,57 +1177,63 @@
     <t>Home to the most extreme thrills at the Minnesota State Fair!</t>
   </si>
   <si>
+    <t>The Giant Sing Along offers you an opportunity to join together in a one-of-a-kind experience._x000B_</t>
+  </si>
+  <si>
     <t>Mighty Midway is home to dozens of attractions and games of skill!</t>
   </si>
   <si>
     <t>Kidway features pint-sized rides, attractions and food for our youngest fair fans!</t>
   </si>
   <si>
-    <t>{'date': '2021-09-07 09:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 08:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 10:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 08:30:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 00:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 07:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 21:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 20:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 19:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 22:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 23:30:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 23:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 00:30:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
-  </si>
-  <si>
-    <t>{'date': '2021-09-07 22:30:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+    <t>{'date': '2023-08-29 09:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 08:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 10:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 08:30:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 00:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 07:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 07:30:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 21:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 20:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 19:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 22:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 23:00:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 23:30:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
+  </si>
+  <si>
+    <t>{'date': '2023-08-29 22:30:00.000000', 'timezone_type': 3, 'timezone': 'America/Chicago'}</t>
   </si>
   <si>
     <t>Closes at 8 p.m. on Labor Day</t>
   </si>
   <si>
+    <t>Closes 8 p.m. on Labor Day</t>
+  </si>
+  <si>
     <t>Closes at 6 p.m. on Labor Day</t>
   </si>
   <si>
@@ -1219,28 +1261,25 @@
     <t>Closes at 9 p.m. on Labor Day.</t>
   </si>
   <si>
-    <t>Closes at 9:30 p.m. on Labor Day.</t>
-  </si>
-  <si>
     <t>closes immediately after fireworks</t>
   </si>
   <si>
     <t>Closes immediately after fireworks</t>
   </si>
   <si>
+    <t>Please check the daily schedule for detailed Cattle Barn hours.</t>
+  </si>
+  <si>
+    <t>Closes at 3 p.m. on Labor Day</t>
+  </si>
+  <si>
     <t>Closes at 8 p.m. on Labor Day.</t>
   </si>
   <si>
-    <t>Please check the daily schedule for detailed Cattle Barn hours.</t>
-  </si>
-  <si>
-    <t>Please check the daily schedule for detailed Horse Barn hours. Closed on Tuesday, Aug. 31.</t>
-  </si>
-  <si>
-    <t>Closes at 3 p.m. on Labor Day</t>
-  </si>
-  <si>
-    <t>Closes at 11 p.m. on Labor Day</t>
+    <t>Closes at 10:30 p.m. on Labor Day.</t>
+  </si>
+  <si>
+    <t>Closes at 10 p.m. on Labor Day (NOTE: these hours are for fair-time only)</t>
   </si>
   <si>
     <t>Shopping opens at 9 a.m.</t>
@@ -1249,25 +1288,28 @@
     <t>Open 24 hours.</t>
   </si>
   <si>
-    <t>Closes at 10 p.m. on Labor Day</t>
-  </si>
-  <si>
-    <t>Closes at 10 p.m. on Labor Day. Daily closing times for Adventure Park may vary. Ticket booth close ½ hour before rides &amp; games close.</t>
-  </si>
-  <si>
-    <t>Closes at 10:30 p.m. on Labor Day. Daily closing times may vary. Ticket booths close ½ hour before rides &amp; games close. All info. subject to change.</t>
-  </si>
-  <si>
-    <t>Closes at 9:30 p.m. on Labor Day. Daily closing times may vary. Ticket booths close ½ hour before rides &amp; games close. All info. subject to change.</t>
-  </si>
-  <si>
-    <t>$3.50 per person</t>
+    <t>Closes at 9 p.m. on Labor Day. Daily closing times for Adventure Park may vary. Ticket booth close ½ hour before rides &amp; games close.</t>
+  </si>
+  <si>
+    <t>Labor Day: Closes 8 p.m., ticket sales close 7:30 p.m.</t>
+  </si>
+  <si>
+    <t>Closes at 9 p.m. on Labor Day. Daily closing times may vary. Ticket booths close ½ hour before rides &amp; games close. All info. subject to change.</t>
+  </si>
+  <si>
+    <t>Closes at 8 p.m. on Labor Day. Daily closing times may vary. Ticket booths close ½ hour before rides &amp; games close. All info. subject to change.</t>
+  </si>
+  <si>
+    <t>$4 per person</t>
   </si>
   <si>
     <t>$3 per rider</t>
   </si>
   <si>
-    <t>$6 per rider</t>
+    <t>$4 per rider</t>
+  </si>
+  <si>
+    <t>$7 per rider</t>
   </si>
   <si>
     <t>$5 per person</t>
@@ -1276,22 +1318,19 @@
     <t>$3 per person</t>
   </si>
   <si>
-    <t>$5 one way_x000B_$8 round trip</t>
-  </si>
-  <si>
-    <t>$4.50 one way_x000B_$7 round trip</t>
+    <t>$6 one way_x000B_$10 round trip</t>
   </si>
   <si>
     <t>$5 per rider</t>
   </si>
   <si>
-    <t>$4 per rider</t>
-  </si>
-  <si>
     <t>See each individual attraction for pricing.</t>
   </si>
   <si>
-    <t>$1 for an individual ticket_x000B_$25 for a 28-ticket sheet_x000B_$50 for a 60-ticket sheet</t>
+    <t>$10 per person</t>
+  </si>
+  <si>
+    <t>$1 for an individual ticket_x000B_$30 for 33 tickets_x000B_$60 for 70 tickets</t>
   </si>
   <si>
     <t xml:space="preserve"> Free with fair admission</t>
@@ -1315,10 +1354,13 @@
     <t xml:space="preserve">Adventure Park attractions do not accept Mighty Midway and Kidway tickets. </t>
   </si>
   <si>
-    <t>For more savings, ride and play on special discount days! During the 2021 State Fair, special ride &amp; game promotions are offered all day on:_x000B__x000B_* Thursday, Aug. 26_x000B_* Monday, Aug. 30_x000B_* Wednesday, Sept. 1_x000B_* Monday, Sept. 6_x000B__x000B_The same great promotions are offered as early bird specials until 1 p.m. on:_x000B__x000B_* Friday, Aug. 27_x000B_* Tuesday, Aug. 31_x000B_* Thursday, Sept. 2_x000B_* Friday, Sept. 3_x000B__x000B_Pick up the State Fair’s [Blue Ribbon Bargain Book](/blue-ribbon-bargain-book/) to save even more at Mighty Midway! One of the coupons gets you $8 off one $25-sheet of 28 ride &amp; game tickets! Get your coupon book for just $5.</t>
-  </si>
-  <si>
-    <t>For more savings, ride and play on special discount days! During the 2021 State Fair, special ride &amp; game promotions are offered all day on:_x000B__x000B_Thursday, Aug. 26_x000B_Monday, Aug. 30_x000B_Wednesday, Sept. 1_x000B_Monday, Sept. 6_x000B__x000B_The same great promotions are offered as early bird specials until 1 p.m. on:_x000B__x000B_Friday, Aug. 27_x000B_Tuesday, Aug. 31_x000B_Thursday, Sept. 2_x000B_Friday, Sept. 3_x000B__x000B_Pick up the State Fair’s [Blue Ribbon Bargain Book](/blue-ribbon-bargain-book/) to save even more at at the Kidway! One of the coupons gets you $8 off one $25-sheet of 28 ride &amp; game tickets! Get your coupon book for just $5.</t>
+    <t>Children 3 and under are free with a paid adult</t>
+  </si>
+  <si>
+    <t>For more savings, ride and play on special discount days! During the 2023 State Fair, special ride &amp; game promotions are offered all day on:_x000B__x000B_Thursday, Aug. 24_x000B_Tuesday, Aug. 29_x000B_Wednesday, Aug. 30_x000B_Monday, Sept. 4_x000B_The same great promotions are offered as early bird specials until 1 p.m. on:_x000B__x000B_Friday, Aug. 25_x000B_Monday, Aug. 28_x000B_Thursday, Aug. 31_x000B_Friday, Sept. 1_x000B__x000B_Pick up the State Fair’s [Blue Ribbon Bargain Book](/blue-ribbon-bargain-book/) to save even more at Mighty Midway! Get your coupon book for just $5.</t>
+  </si>
+  <si>
+    <t>For more savings, ride and play on special discount days! During the 2023 State Fair, special ride &amp; game promotions are offered all day on:_x000B__x000B_Thursday, Aug. 24_x000B_Tuesday, Aug. 29_x000B_Wednesday, Aug. 30_x000B_Monday, Sept. 4_x000B_The same great promotions are offered as early bird specials until 1 p.m. on:_x000B__x000B_Friday, Aug. 25_x000B_Monday, Aug. 28_x000B_Thursday, Aug. 31_x000B_Friday, Sept. 1_x000B__x000B_Pick up the State Fair’s [Blue Ribbon Bargain Book](/blue-ribbon-bargain-book/) to save even more at the Kidway! Get your coupon book for just $5.</t>
   </si>
   <si>
     <t>id</t>
@@ -1408,8 +1450,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N138" totalsRowShown="0">
-  <autoFilter ref="A1:N138"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N143" totalsRowShown="0">
+  <autoFilter ref="A1:N143"/>
   <tableColumns count="14">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="pid"/>
@@ -1715,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,46 +1765,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B1" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C1" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="D1" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="E1" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="F1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="G1" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="H1" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="I1" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="J1" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="K1" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="L1" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="M1" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="N1" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1776,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H2" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I2" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1799,22 +1841,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="H3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I3" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J3" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M3">
         <v>44.980847</v>
@@ -1834,22 +1876,22 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I4" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J4" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M4">
         <v>44.981217</v>
@@ -1869,22 +1911,22 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H5" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I5" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J5" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M5">
         <v>44.981876</v>
@@ -1904,22 +1946,22 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I6" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J6" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M6">
         <v>44.978388</v>
@@ -1939,22 +1981,22 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M7">
         <v>44.980892</v>
@@ -1974,19 +2016,22 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I8" t="s">
-        <v>384</v>
+        <v>397</v>
+      </c>
+      <c r="J8" t="s">
+        <v>405</v>
       </c>
       <c r="M8">
         <v>44.978954</v>
@@ -2006,13 +2051,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M9">
         <v>44.978157</v>
@@ -2032,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M10">
         <v>44.979553</v>
@@ -2058,13 +2103,22 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>303</v>
+      </c>
+      <c r="H11" t="s">
+        <v>391</v>
+      </c>
+      <c r="I11" t="s">
+        <v>397</v>
+      </c>
+      <c r="J11" t="s">
+        <v>404</v>
       </c>
       <c r="M11">
         <v>44.980909</v>
@@ -2084,19 +2138,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H12" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I12" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="J12" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="M12">
         <v>44.983413</v>
@@ -2116,13 +2170,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J13" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="M13">
         <v>44.979194</v>
@@ -2142,16 +2196,16 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H14" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I14" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="M14">
         <v>44.983409</v>
@@ -2171,16 +2225,16 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="J15" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="M15">
         <v>44.979008</v>
@@ -2200,19 +2254,19 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="H16" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I16" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J16" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="M16">
         <v>44.978954</v>
@@ -2232,19 +2286,19 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F17" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="J17" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="L17" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="M17">
         <v>44.979013</v>
@@ -2255,193 +2309,178 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>300</v>
-      </c>
-      <c r="H18" t="s">
-        <v>377</v>
-      </c>
-      <c r="I18" t="s">
-        <v>384</v>
+        <v>310</v>
+      </c>
+      <c r="J18" t="s">
+        <v>407</v>
       </c>
       <c r="M18">
-        <v>44.980878</v>
+        <v>44.979682</v>
       </c>
       <c r="N18">
-        <v>-93.16941300000001</v>
+        <v>-93.17618</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>425</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F19" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="H19" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I19" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="M19">
-        <v>44.985493</v>
+        <v>44.980878</v>
       </c>
       <c r="N19">
-        <v>-93.169785</v>
+        <v>-93.16941300000001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F20" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H20" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I20" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M20">
-        <v>44.984207</v>
+        <v>44.985493</v>
       </c>
       <c r="N20">
-        <v>-93.168637</v>
+        <v>-93.169785</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>210</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
-        <v>303</v>
-      </c>
-      <c r="J21" t="s">
-        <v>397</v>
+        <v>313</v>
+      </c>
+      <c r="H21" t="s">
+        <v>390</v>
+      </c>
+      <c r="I21" t="s">
+        <v>398</v>
       </c>
       <c r="M21">
-        <v>44.978352</v>
+        <v>44.984207</v>
       </c>
       <c r="N21">
-        <v>-93.17661699999999</v>
+        <v>-93.168637</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="J22" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="M22">
-        <v>44.977976</v>
+        <v>44.978352</v>
       </c>
       <c r="N22">
-        <v>-93.17767600000001</v>
+        <v>-93.17661699999999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H23" t="s">
-        <v>378</v>
-      </c>
-      <c r="I23" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="J23" t="s">
-        <v>399</v>
-      </c>
-      <c r="K23" t="s">
-        <v>415</v>
-      </c>
-      <c r="L23" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="M23">
-        <v>44.981437</v>
+        <v>44.978326</v>
       </c>
       <c r="N23">
-        <v>-93.17079200000001</v>
+        <v>-93.177451</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2450,39 +2489,39 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F24" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H24" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I24" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="J24" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K24" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="L24" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="M24">
-        <v>44.98079</v>
+        <v>44.981437</v>
       </c>
       <c r="N24">
-        <v>-93.172645</v>
+        <v>-93.17079200000001</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2491,42 +2530,39 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F25" t="s">
-        <v>307</v>
-      </c>
-      <c r="G25" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I25" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="J25" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="K25" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="L25" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M25">
-        <v>44.980236</v>
+        <v>44.98079</v>
       </c>
       <c r="N25">
-        <v>-93.171925</v>
+        <v>-93.172645</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2535,42 +2571,42 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="G26" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="H26" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="I26" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="J26" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="K26" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L26" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="M26">
-        <v>44.984145</v>
+        <v>44.980236</v>
       </c>
       <c r="N26">
-        <v>-93.169462</v>
+        <v>-93.171925</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2579,39 +2615,42 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>319</v>
+      </c>
+      <c r="G27" t="s">
+        <v>380</v>
       </c>
       <c r="H27" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="I27" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="J27" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="K27" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="L27" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="M27">
-        <v>44.978339</v>
+        <v>44.984145</v>
       </c>
       <c r="N27">
-        <v>-93.170115</v>
+        <v>-93.169462</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2620,36 +2659,39 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F28" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="H28" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I28" t="s">
-        <v>383</v>
+        <v>401</v>
+      </c>
+      <c r="J28" t="s">
+        <v>414</v>
       </c>
       <c r="K28" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="L28" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="M28">
-        <v>44.979341</v>
+        <v>44.978339</v>
       </c>
       <c r="N28">
-        <v>-93.17206</v>
+        <v>-93.170115</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2658,74 +2700,77 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F29" t="s">
-        <v>311</v>
-      </c>
-      <c r="G29" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="H29" t="s">
-        <v>377</v>
-      </c>
-      <c r="J29" t="s">
-        <v>402</v>
+        <v>390</v>
+      </c>
+      <c r="I29" t="s">
+        <v>397</v>
       </c>
       <c r="K29" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="L29" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="M29">
-        <v>44.981422</v>
+        <v>44.979341</v>
       </c>
       <c r="N29">
-        <v>-93.171057</v>
+        <v>-93.17206</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>289</v>
       </c>
       <c r="F30" t="s">
-        <v>312</v>
+        <v>322</v>
+      </c>
+      <c r="G30" t="s">
+        <v>381</v>
       </c>
       <c r="H30" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="J30" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="K30" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="L30" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="M30">
-        <v>44.986892</v>
+        <v>44.981422</v>
       </c>
       <c r="N30">
-        <v>-93.169409</v>
+        <v>-93.171057</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31">
         <v>73</v>
@@ -2734,112 +2779,112 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F31" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H31" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="J31" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K31" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="L31" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="M31">
-        <v>44.981481</v>
+        <v>44.986892</v>
       </c>
       <c r="N31">
-        <v>-93.171177</v>
+        <v>-93.169409</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" t="s">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>314</v>
-      </c>
-      <c r="G32" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="H32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I32" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="J32" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="K32" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="L32" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="M32">
-        <v>44.979912</v>
+        <v>44.981481</v>
       </c>
       <c r="N32">
-        <v>-93.169338</v>
+        <v>-93.171177</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>289</v>
       </c>
       <c r="F33" t="s">
-        <v>315</v>
+        <v>325</v>
+      </c>
+      <c r="G33" t="s">
+        <v>382</v>
       </c>
       <c r="H33" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="I33" t="s">
-        <v>386</v>
+        <v>400</v>
+      </c>
+      <c r="J33" t="s">
+        <v>414</v>
       </c>
       <c r="K33" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="L33" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="M33">
-        <v>44.979775</v>
+        <v>44.979912</v>
       </c>
       <c r="N33">
-        <v>-93.16931099999999</v>
+        <v>-93.169338</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34">
         <v>76</v>
@@ -2848,77 +2893,68 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F34" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H34" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="I34" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="K34" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="L34" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="M34">
-        <v>44.981015</v>
+        <v>44.979775</v>
       </c>
       <c r="N34">
-        <v>-93.17571100000001</v>
+        <v>-93.16931099999999</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" t="s">
-        <v>279</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
-      </c>
-      <c r="G35" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="H35" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I35" t="s">
-        <v>383</v>
-      </c>
-      <c r="J35" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K35" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="L35" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="M35">
-        <v>44.979713</v>
+        <v>44.981015</v>
       </c>
       <c r="N35">
-        <v>-93.168446</v>
+        <v>-93.17571100000001</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2927,39 +2963,42 @@
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F36" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H36" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I36" t="s">
-        <v>383</v>
+        <v>400</v>
+      </c>
+      <c r="J36" t="s">
+        <v>414</v>
       </c>
       <c r="K36" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="L36" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="M36">
-        <v>44.984703</v>
+        <v>44.979713</v>
       </c>
       <c r="N36">
-        <v>-93.16884</v>
+        <v>-93.168446</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2968,126 +3007,141 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="H37" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I37" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="K37" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="L37" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="M37">
-        <v>44.979762</v>
+        <v>44.984703</v>
       </c>
       <c r="N37">
-        <v>-93.17097699999999</v>
+        <v>-93.16884</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B38">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>330</v>
+      </c>
+      <c r="G38" t="s">
+        <v>385</v>
       </c>
       <c r="H38" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I38" t="s">
-        <v>383</v>
-      </c>
-      <c r="J38" t="s">
-        <v>391</v>
+        <v>400</v>
+      </c>
+      <c r="K38" t="s">
+        <v>435</v>
+      </c>
+      <c r="L38" t="s">
+        <v>443</v>
       </c>
       <c r="M38">
-        <v>44.981689</v>
+        <v>44.979762</v>
       </c>
       <c r="N38">
-        <v>-93.167621</v>
+        <v>-93.17097699999999</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B39">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F39" t="s">
-        <v>321</v>
+        <v>331</v>
+      </c>
+      <c r="H39" t="s">
+        <v>390</v>
+      </c>
+      <c r="I39" t="s">
+        <v>397</v>
+      </c>
+      <c r="J39" t="s">
+        <v>404</v>
       </c>
       <c r="M39">
-        <v>44.984191</v>
+        <v>44.981689</v>
       </c>
       <c r="N39">
-        <v>-93.168584</v>
+        <v>-93.167621</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F40" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="M40">
-        <v>44.980385</v>
+        <v>44.984191</v>
       </c>
       <c r="N40">
-        <v>-93.174049</v>
+        <v>-93.168584</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3096,18 +3150,24 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>286</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
       </c>
       <c r="M41">
-        <v>44.980979</v>
+        <v>44.980385</v>
       </c>
       <c r="N41">
-        <v>-93.174391</v>
+        <v>-93.174049</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3116,189 +3176,186 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M42">
-        <v>44.981184</v>
+        <v>44.980979</v>
       </c>
       <c r="N42">
-        <v>-93.172156</v>
+        <v>-93.174391</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" t="s">
-        <v>276</v>
-      </c>
-      <c r="F43" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="M43">
-        <v>44.981997</v>
+        <v>44.981184</v>
       </c>
       <c r="N43">
-        <v>-93.17327899999999</v>
+        <v>-93.172156</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B44">
-        <v>470</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M44">
-        <v>44.981517</v>
+        <v>44.981997</v>
       </c>
       <c r="N44">
-        <v>-93.177621</v>
+        <v>-93.17327899999999</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>470</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F45" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M45">
-        <v>44.978081</v>
+        <v>44.981517</v>
       </c>
       <c r="N45">
-        <v>-93.169693</v>
+        <v>-93.177621</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E46" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M46">
-        <v>44.980181</v>
+        <v>44.978081</v>
       </c>
       <c r="N46">
-        <v>-93.168763</v>
+        <v>-93.169693</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B47">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E47" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="M47">
-        <v>44.985378</v>
+        <v>44.980181</v>
       </c>
       <c r="N47">
-        <v>-93.168707</v>
+        <v>-93.168763</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
+        <v>140</v>
+      </c>
+      <c r="B48">
         <v>141</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+      <c r="E48" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" t="s">
+        <v>338</v>
       </c>
       <c r="M48">
-        <v>44.985313</v>
+        <v>44.985378</v>
       </c>
       <c r="N48">
-        <v>-93.168843</v>
+        <v>-93.168707</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="F49" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="M49">
-        <v>44.978989</v>
+        <v>44.985313</v>
       </c>
       <c r="N49">
-        <v>-93.17114599999999</v>
+        <v>-93.168843</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3312,7 +3369,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M50">
         <v>44.97861</v>
@@ -3332,7 +3389,7 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M51">
         <v>44.97751</v>
@@ -3352,16 +3409,16 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F52" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="J52" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M52">
         <v>44.978103</v>
@@ -3381,7 +3438,7 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M53">
         <v>44.977532</v>
@@ -3401,16 +3458,16 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F54" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="J54" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M54">
         <v>44.979162</v>
@@ -3430,7 +3487,7 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M55">
         <v>44.97918</v>
@@ -3450,13 +3507,13 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F56" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M56">
         <v>44.97906</v>
@@ -3476,16 +3533,16 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F57" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="J57" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="M57">
         <v>44.978976</v>
@@ -3505,16 +3562,16 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E58" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F58" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="J58" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="M58">
         <v>44.978055</v>
@@ -3534,22 +3591,22 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F59" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H59" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I59" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J59" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M59">
         <v>44.983305</v>
@@ -3569,22 +3626,22 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="H60" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I60" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J60" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M60">
         <v>44.979215</v>
@@ -3604,22 +3661,22 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E61" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F61" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H61" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I61" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J61" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="M61">
         <v>44.978117</v>
@@ -3639,7 +3696,7 @@
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M62">
         <v>44.981711</v>
@@ -3659,22 +3716,22 @@
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F63" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H63" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I63" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J63" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M63">
         <v>44.981608</v>
@@ -3694,13 +3751,13 @@
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F64" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M64">
         <v>44.981733</v>
@@ -3720,22 +3777,22 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E65" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F65" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H65" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I65" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J65" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M65">
         <v>44.978236</v>
@@ -3755,22 +3812,22 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E66" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F66" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="H66" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I66" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J66" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M66">
         <v>44.984882</v>
@@ -3790,22 +3847,22 @@
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E67" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F67" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="H67" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I67" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J67" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M67">
         <v>44.982521</v>
@@ -3825,13 +3882,13 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F68" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M68">
         <v>44.982082</v>
@@ -3851,22 +3908,22 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F69" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="H69" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I69" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J69" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M69">
         <v>44.984138</v>
@@ -3886,22 +3943,22 @@
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H70" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="I70" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J70" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M70">
         <v>44.980203</v>
@@ -3921,22 +3978,22 @@
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F71" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="H71" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="I71" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="J71" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="M71">
         <v>44.983701</v>
@@ -3956,19 +4013,22 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E72" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F72" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="H72" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="I72" t="s">
-        <v>389</v>
+        <v>402</v>
+      </c>
+      <c r="J72" t="s">
+        <v>420</v>
       </c>
       <c r="M72">
         <v>44.980573</v>
@@ -3988,22 +4048,22 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E73" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F73" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H73" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="I73" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="J73" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="M73">
         <v>44.980527</v>
@@ -4023,22 +4083,22 @@
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E74" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F74" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="H74" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="I74" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="J74" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M74">
         <v>44.98745</v>
@@ -4058,22 +4118,22 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F75" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="H75" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="I75" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="J75" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M75">
         <v>44.980514</v>
@@ -4093,19 +4153,22 @@
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E76" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F76" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="H76" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="I76" t="s">
-        <v>388</v>
+        <v>403</v>
+      </c>
+      <c r="J76" t="s">
+        <v>413</v>
       </c>
       <c r="M76">
         <v>44.981391</v>
@@ -4125,22 +4188,22 @@
         <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E77" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F77" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="H77" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="I77" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="J77" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M77">
         <v>44.981422</v>
@@ -4160,22 +4223,22 @@
         <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H78" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="I78" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="J78" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M78">
         <v>44.980549</v>
@@ -4195,22 +4258,22 @@
         <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F79" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H79" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I79" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J79" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M79">
         <v>44.978117</v>
@@ -4230,22 +4293,22 @@
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E80" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F80" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H80" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I80" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J80" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M80">
         <v>44.981307</v>
@@ -4265,7 +4328,7 @@
         <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M81">
         <v>44.980819</v>
@@ -4285,22 +4348,22 @@
         <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E82" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F82" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H82" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I82" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J82" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M82">
         <v>44.987677</v>
@@ -4320,7 +4383,7 @@
         <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M83">
         <v>44.987881</v>
@@ -4340,22 +4403,22 @@
         <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F84" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="H84" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I84" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J84" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M84">
         <v>44.987279</v>
@@ -4375,31 +4438,31 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E85" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F85" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G85" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="H85" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I85" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="J85" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="K85" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="L85" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="M85">
         <v>44.97814</v>
@@ -4419,13 +4482,13 @@
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E86" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F86" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M86">
         <v>44.979282</v>
@@ -4445,7 +4508,7 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M87">
         <v>44.980819</v>
@@ -4465,10 +4528,10 @@
         <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E88" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M88">
         <v>44.979159</v>
@@ -4488,7 +4551,7 @@
         <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M89">
         <v>44.98229</v>
@@ -4508,7 +4571,7 @@
         <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M90">
         <v>44.981559</v>
@@ -4528,22 +4591,22 @@
         <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E91" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F91" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="H91" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I91" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="J91" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M91">
         <v>44.978892</v>
@@ -4563,13 +4626,13 @@
         <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E92" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F92" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M92">
         <v>44.97945</v>
@@ -4589,13 +4652,13 @@
         <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E93" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F93" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M93">
         <v>44.978787</v>
@@ -4615,19 +4678,19 @@
         <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E94" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H94" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I94" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="M94">
         <v>44.983571</v>
@@ -4647,7 +4710,7 @@
         <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M95">
         <v>44.977979</v>
@@ -4658,7 +4721,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -4667,21 +4730,33 @@
         <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>231</v>
+        <v>236</v>
+      </c>
+      <c r="E96" t="s">
+        <v>288</v>
       </c>
       <c r="F96" t="s">
-        <v>359</v>
+        <v>369</v>
+      </c>
+      <c r="G96" t="s">
+        <v>387</v>
+      </c>
+      <c r="H96" t="s">
+        <v>390</v>
+      </c>
+      <c r="I96" t="s">
+        <v>398</v>
       </c>
       <c r="M96">
-        <v>44.979273</v>
+        <v>44.9864</v>
       </c>
       <c r="N96">
-        <v>-93.168538</v>
+        <v>-93.16988000000001</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4690,30 +4765,21 @@
         <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>232</v>
-      </c>
-      <c r="E97" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="F97" t="s">
-        <v>360</v>
-      </c>
-      <c r="H97" t="s">
-        <v>378</v>
-      </c>
-      <c r="I97" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="M97">
-        <v>44.985462</v>
+        <v>44.979273</v>
       </c>
       <c r="N97">
-        <v>-93.16971700000001</v>
+        <v>-93.168538</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4722,18 +4788,30 @@
         <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
+        <v>238</v>
+      </c>
+      <c r="E98" t="s">
+        <v>285</v>
+      </c>
+      <c r="F98" t="s">
+        <v>371</v>
+      </c>
+      <c r="H98" t="s">
+        <v>391</v>
+      </c>
+      <c r="I98" t="s">
+        <v>399</v>
       </c>
       <c r="M98">
-        <v>44.980119</v>
+        <v>44.985462</v>
       </c>
       <c r="N98">
-        <v>-93.168178</v>
+        <v>-93.16971700000001</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4742,27 +4820,18 @@
         <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>234</v>
-      </c>
-      <c r="F99" t="s">
-        <v>361</v>
-      </c>
-      <c r="H99" t="s">
-        <v>378</v>
-      </c>
-      <c r="I99" t="s">
-        <v>385</v>
+        <v>239</v>
       </c>
       <c r="M99">
-        <v>44.985811</v>
+        <v>44.980119</v>
       </c>
       <c r="N99">
-        <v>-93.169813</v>
+        <v>-93.168178</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4771,18 +4840,27 @@
         <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="F100" t="s">
+        <v>372</v>
+      </c>
+      <c r="H100" t="s">
+        <v>391</v>
+      </c>
+      <c r="I100" t="s">
+        <v>399</v>
       </c>
       <c r="M100">
-        <v>44.980989</v>
+        <v>44.985811</v>
       </c>
       <c r="N100">
-        <v>-93.17071799999999</v>
+        <v>-93.169813</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -4791,18 +4869,18 @@
         <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M101">
-        <v>44.979224</v>
+        <v>44.980989</v>
       </c>
       <c r="N101">
-        <v>-93.170616</v>
+        <v>-93.17071799999999</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4811,12 +4889,18 @@
         <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>237</v>
+        <v>242</v>
+      </c>
+      <c r="M102">
+        <v>44.979224</v>
+      </c>
+      <c r="N102">
+        <v>-93.170616</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4825,18 +4909,12 @@
         <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>238</v>
-      </c>
-      <c r="M103">
-        <v>44.981085</v>
-      </c>
-      <c r="N103">
-        <v>-93.169588</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4845,30 +4923,18 @@
         <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>239</v>
-      </c>
-      <c r="F104" t="s">
-        <v>362</v>
-      </c>
-      <c r="H104" t="s">
-        <v>377</v>
-      </c>
-      <c r="I104" t="s">
-        <v>383</v>
-      </c>
-      <c r="J104" t="s">
-        <v>391</v>
+        <v>244</v>
       </c>
       <c r="M104">
-        <v>44.98202</v>
+        <v>44.981085</v>
       </c>
       <c r="N104">
-        <v>-93.16827600000001</v>
+        <v>-93.169588</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -4877,18 +4943,30 @@
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>240</v>
+        <v>245</v>
+      </c>
+      <c r="F105" t="s">
+        <v>373</v>
+      </c>
+      <c r="H105" t="s">
+        <v>390</v>
+      </c>
+      <c r="I105" t="s">
+        <v>397</v>
+      </c>
+      <c r="J105" t="s">
+        <v>404</v>
       </c>
       <c r="M105">
-        <v>44.984315</v>
+        <v>44.98202</v>
       </c>
       <c r="N105">
-        <v>-93.169366</v>
+        <v>-93.16827600000001</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -4897,12 +4975,18 @@
         <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="M106">
+        <v>44.984315</v>
+      </c>
+      <c r="N106">
+        <v>-93.169366</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4911,12 +4995,12 @@
         <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4925,18 +5009,12 @@
         <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>243</v>
-      </c>
-      <c r="M108">
-        <v>44.980713</v>
-      </c>
-      <c r="N108">
-        <v>-93.17639200000001</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -4945,21 +5023,18 @@
         <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>244</v>
-      </c>
-      <c r="F109" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="M109">
-        <v>44.981147</v>
+        <v>44.980713</v>
       </c>
       <c r="N109">
-        <v>-93.175315</v>
+        <v>-93.17639200000001</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4968,18 +5043,21 @@
         <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>245</v>
+        <v>250</v>
+      </c>
+      <c r="F110" t="s">
+        <v>374</v>
       </c>
       <c r="M110">
-        <v>44.983216</v>
+        <v>44.981147</v>
       </c>
       <c r="N110">
-        <v>-93.17501900000001</v>
+        <v>-93.175315</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4988,18 +5066,18 @@
         <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M111">
-        <v>44.983278</v>
+        <v>44.983216</v>
       </c>
       <c r="N111">
-        <v>-93.169416</v>
+        <v>-93.17501900000001</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -5008,52 +5086,58 @@
         <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M112">
-        <v>44.983274</v>
+        <v>44.983278</v>
       </c>
       <c r="N112">
-        <v>-93.16833800000001</v>
+        <v>-93.169416</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B113">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M113">
-        <v>44.979327</v>
+        <v>44.983274</v>
       </c>
       <c r="N113">
-        <v>-93.169028</v>
+        <v>-93.16833800000001</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="C114" t="s">
         <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="M114">
+        <v>44.979327</v>
+      </c>
+      <c r="N114">
+        <v>-93.169028</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -5062,58 +5146,52 @@
         <v>113</v>
       </c>
       <c r="D115" t="s">
-        <v>250</v>
-      </c>
-      <c r="M115">
-        <v>44.979171</v>
-      </c>
-      <c r="N115">
-        <v>-93.169089</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B116">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
         <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M116">
-        <v>44.978391</v>
+        <v>44.979171</v>
       </c>
       <c r="N116">
-        <v>-93.173492</v>
+        <v>-93.169089</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C117" t="s">
         <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M117">
-        <v>44.977691</v>
+        <v>44.978391</v>
       </c>
       <c r="N117">
-        <v>-93.172845</v>
+        <v>-93.173492</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -5122,18 +5200,18 @@
         <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M118">
-        <v>44.984514</v>
+        <v>44.977691</v>
       </c>
       <c r="N118">
-        <v>-93.167858</v>
+        <v>-93.172845</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -5142,18 +5220,18 @@
         <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M119">
-        <v>44.97875</v>
+        <v>44.984514</v>
       </c>
       <c r="N119">
-        <v>-93.16969899999999</v>
+        <v>-93.167858</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -5162,18 +5240,18 @@
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M120">
-        <v>44.984242</v>
+        <v>44.97875</v>
       </c>
       <c r="N120">
-        <v>-93.169049</v>
+        <v>-93.16969899999999</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -5182,18 +5260,18 @@
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M121">
-        <v>44.98048</v>
+        <v>44.984242</v>
       </c>
       <c r="N121">
-        <v>-93.174622</v>
+        <v>-93.169049</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -5202,18 +5280,18 @@
         <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M122">
-        <v>44.981654</v>
+        <v>44.98048</v>
       </c>
       <c r="N122">
-        <v>-93.168249</v>
+        <v>-93.174622</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -5222,33 +5300,18 @@
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>258</v>
-      </c>
-      <c r="E123" t="s">
-        <v>275</v>
-      </c>
-      <c r="F123" t="s">
-        <v>364</v>
-      </c>
-      <c r="H123" t="s">
-        <v>377</v>
-      </c>
-      <c r="I123" t="s">
-        <v>383</v>
-      </c>
-      <c r="J123" t="s">
-        <v>391</v>
+        <v>263</v>
       </c>
       <c r="M123">
-        <v>44.981046</v>
+        <v>44.981654</v>
       </c>
       <c r="N123">
-        <v>-93.176511</v>
+        <v>-93.168249</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -5257,42 +5320,39 @@
         <v>122</v>
       </c>
       <c r="D124" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E124" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F124" t="s">
-        <v>365</v>
-      </c>
-      <c r="G124" t="s">
         <v>375</v>
       </c>
       <c r="H124" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="I124" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="J124" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="K124" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="L124" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="M124">
-        <v>44.980146</v>
+        <v>44.987898</v>
       </c>
       <c r="N124">
-        <v>-93.17735</v>
+        <v>-93.170007</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -5301,42 +5361,33 @@
         <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E125" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F125" t="s">
-        <v>366</v>
-      </c>
-      <c r="G125" t="s">
         <v>376</v>
       </c>
       <c r="H125" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I125" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="J125" t="s">
-        <v>414</v>
-      </c>
-      <c r="K125" t="s">
-        <v>425</v>
-      </c>
-      <c r="L125" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="M125">
-        <v>44.982401</v>
+        <v>44.981046</v>
       </c>
       <c r="N125">
-        <v>-93.169816</v>
+        <v>-93.176511</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -5345,24 +5396,42 @@
         <v>124</v>
       </c>
       <c r="D126" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E126" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F126" t="s">
-        <v>338</v>
+        <v>377</v>
+      </c>
+      <c r="G126" t="s">
+        <v>388</v>
+      </c>
+      <c r="H126" t="s">
+        <v>392</v>
+      </c>
+      <c r="I126" t="s">
+        <v>401</v>
+      </c>
+      <c r="J126" t="s">
+        <v>426</v>
+      </c>
+      <c r="K126" t="s">
+        <v>438</v>
+      </c>
+      <c r="L126" t="s">
+        <v>447</v>
       </c>
       <c r="M126">
-        <v>44.979693</v>
+        <v>44.980146</v>
       </c>
       <c r="N126">
-        <v>-93.173768</v>
+        <v>-93.17735</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127">
-        <v>602</v>
+        <v>480</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -5371,24 +5440,42 @@
         <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E127" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F127" t="s">
-        <v>338</v>
+        <v>378</v>
+      </c>
+      <c r="G127" t="s">
+        <v>389</v>
+      </c>
+      <c r="H127" t="s">
+        <v>390</v>
+      </c>
+      <c r="I127" t="s">
+        <v>400</v>
+      </c>
+      <c r="J127" t="s">
+        <v>427</v>
+      </c>
+      <c r="K127" t="s">
+        <v>438</v>
+      </c>
+      <c r="L127" t="s">
+        <v>448</v>
       </c>
       <c r="M127">
-        <v>44.979645</v>
+        <v>44.982401</v>
       </c>
       <c r="N127">
-        <v>-93.175128</v>
+        <v>-93.169816</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -5397,24 +5484,24 @@
         <v>126</v>
       </c>
       <c r="D128" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F128" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M128">
-        <v>44.980051</v>
+        <v>44.979693</v>
       </c>
       <c r="N128">
-        <v>-93.171066</v>
+        <v>-93.173768</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -5423,24 +5510,24 @@
         <v>127</v>
       </c>
       <c r="D129" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E129" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F129" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M129">
-        <v>44.980044</v>
+        <v>44.979645</v>
       </c>
       <c r="N129">
-        <v>-93.17146</v>
+        <v>-93.175128</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -5449,24 +5536,24 @@
         <v>128</v>
       </c>
       <c r="D130" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E130" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F130" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M130">
-        <v>44.979841</v>
+        <v>44.980051</v>
       </c>
       <c r="N130">
-        <v>-93.17442200000001</v>
+        <v>-93.171066</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -5475,24 +5562,24 @@
         <v>129</v>
       </c>
       <c r="D131" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E131" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F131" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M131">
-        <v>44.985622</v>
+        <v>44.980044</v>
       </c>
       <c r="N131">
-        <v>-93.169015</v>
+        <v>-93.17146</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5501,24 +5588,24 @@
         <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E132" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F132" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M132">
-        <v>44.980036</v>
+        <v>44.979841</v>
       </c>
       <c r="N132">
-        <v>-93.171691</v>
+        <v>-93.17442200000001</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -5527,24 +5614,24 @@
         <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E133" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F133" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M133">
-        <v>44.981069</v>
+        <v>44.985622</v>
       </c>
       <c r="N133">
-        <v>-93.16825799999999</v>
+        <v>-93.169015</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -5553,50 +5640,50 @@
         <v>132</v>
       </c>
       <c r="D134" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E134" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F134" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M134">
-        <v>44.980895</v>
+        <v>44.980036</v>
       </c>
       <c r="N134">
-        <v>-93.174933</v>
+        <v>-93.171691</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B135">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
         <v>133</v>
       </c>
       <c r="D135" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E135" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F135" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M135">
-        <v>44.981122</v>
+        <v>44.981384</v>
       </c>
       <c r="N135">
-        <v>-93.1698</v>
+        <v>-93.169511</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -5605,24 +5692,24 @@
         <v>134</v>
       </c>
       <c r="D136" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E136" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F136" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M136">
-        <v>44.97871</v>
+        <v>44.981069</v>
       </c>
       <c r="N136">
-        <v>-93.174409</v>
+        <v>-93.16825799999999</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5631,39 +5718,169 @@
         <v>135</v>
       </c>
       <c r="D137" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F137" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M137">
-        <v>44.987293</v>
+        <v>44.980895</v>
       </c>
       <c r="N137">
-        <v>-93.170142</v>
+        <v>-93.174933</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="C138" t="s">
         <v>136</v>
       </c>
       <c r="D138" t="s">
-        <v>273</v>
+        <v>278</v>
+      </c>
+      <c r="E138" t="s">
+        <v>291</v>
+      </c>
+      <c r="F138" t="s">
+        <v>348</v>
       </c>
       <c r="M138">
+        <v>44.981122</v>
+      </c>
+      <c r="N138">
+        <v>-93.1698</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139">
+        <v>616</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>137</v>
+      </c>
+      <c r="D139" t="s">
+        <v>279</v>
+      </c>
+      <c r="E139" t="s">
+        <v>291</v>
+      </c>
+      <c r="F139" t="s">
+        <v>348</v>
+      </c>
+      <c r="M139">
+        <v>44.97871</v>
+      </c>
+      <c r="N139">
+        <v>-93.174409</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140">
+        <v>618</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>138</v>
+      </c>
+      <c r="D140" t="s">
+        <v>280</v>
+      </c>
+      <c r="E140" t="s">
+        <v>291</v>
+      </c>
+      <c r="F140" t="s">
+        <v>348</v>
+      </c>
+      <c r="M140">
+        <v>44.978843</v>
+      </c>
+      <c r="N140">
+        <v>-93.171663</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141">
+        <v>619</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>139</v>
+      </c>
+      <c r="D141" t="s">
+        <v>281</v>
+      </c>
+      <c r="E141" t="s">
+        <v>291</v>
+      </c>
+      <c r="F141" t="s">
+        <v>348</v>
+      </c>
+      <c r="M141">
+        <v>44.987293</v>
+      </c>
+      <c r="N141">
+        <v>-93.170142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142">
+        <v>620</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>140</v>
+      </c>
+      <c r="D142" t="s">
+        <v>282</v>
+      </c>
+      <c r="M142">
         <v>44.97915</v>
       </c>
-      <c r="N138">
+      <c r="N142">
         <v>-93.16836600000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143">
+        <v>621</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>141</v>
+      </c>
+      <c r="D143" t="s">
+        <v>283</v>
+      </c>
+      <c r="E143" t="s">
+        <v>291</v>
+      </c>
+      <c r="F143" t="s">
+        <v>348</v>
+      </c>
+      <c r="M143">
+        <v>44.985812</v>
+      </c>
+      <c r="N143">
+        <v>-93.170709</v>
       </c>
     </row>
   </sheetData>
